--- a/biology/Neurosciences/Asymbolie_à_la_douleur/Asymbolie_à_la_douleur.xlsx
+++ b/biology/Neurosciences/Asymbolie_à_la_douleur/Asymbolie_à_la_douleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Asymbolie_%C3%A0_la_douleur</t>
+          <t>Asymbolie_à_la_douleur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'asymbolie à la douleur (dite aussi analgognosie ou apractognosie algique) est un trouble neurologique qui se caractérise par le fait que les patients qui en sont atteints ne ressentent plus la douleur comme pénible. Plus exactement, ils ne ressentent plus la composante affective, normalement désagréable, de la douleur mais ils continuent de percevoir les autres aspects, notamment sensoriels des stimuli nociceptifs. 
 De façon caractéristique, ces patients ne présentent plus de réflexes de retrait ni d'autres comportements moteurs (expression faciale) ou verbaux à un stimulus nociceptif. L'asymbolie à la douleur peut être considéré comme une forme d'agnosie reflétant une déconnexion sensori-limbique. Elle peut être totale ou seulement partielle et dans ce cas ne concerner que les stimuli douloureux présentés sur une partie du corps seulement. L'asymbolie à la douleur résulte le plus souvent d'une lésion cérébrale du lobe pariétal, principalement à gauche, mais surtout du lobe de l'insula.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Asymbolie_%C3%A0_la_douleur</t>
+          <t>Asymbolie_à_la_douleur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>À ne pas confondre</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'asymbolie à la douleur ne doit pas être confondue avec :
 l'insensibilité congénitale à la douleur : un autre trouble neurologique dans lequel les patients ne ressentent pas la douleur, mais l'étiologie repose sur des mutations génétiques et il est donc présent dès la naissance.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Asymbolie_%C3%A0_la_douleur</t>
+          <t>Asymbolie_à_la_douleur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>L'asymbolie dans la fiction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dans le film Le Monde ne suffit pas, l'antagoniste principal ne ressent plus aucune douleur après avoir reçu une balle logée dans le cortex.
 Dans le film V pour Vendetta, le personnage principal n'est plus en mesure de ressentir de la douleur à la suite de différentes expériences faites sur lui contre son gré.</t>
